--- a/database/industries/folad/fakhouz/income/quarterly/rial_cumulative.xlsx
+++ b/database/industries/folad/fakhouz/income/quarterly/rial_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fakhouz\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fakhouz\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BD899E-DE06-47B2-A888-8CF5BA507B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0935E984-7697-4378-96BE-B55812FE269C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -619,7 +619,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
@@ -630,7 +630,7 @@
     <col min="11" max="13" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -644,7 +644,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -660,7 +660,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -676,7 +676,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -690,7 +690,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -706,7 +706,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -722,7 +722,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -736,7 +736,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -772,7 +772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -808,7 +808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -822,7 +822,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -858,7 +858,7 @@
         <v>366866247</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
@@ -894,7 +894,7 @@
         <v>-301600601</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
@@ -930,7 +930,7 @@
         <v>65265646</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
@@ -966,7 +966,7 @@
         <v>-22888383</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>-4921397</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>32</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>37455866</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>-1973728</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>34</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>9857318</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>45339456</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>36</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>-6353566</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>38985890</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>38</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>39</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>38985890</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>40</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>41</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>190000000</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>42</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>

--- a/database/industries/folad/fakhouz/income/quarterly/rial_cumulative.xlsx
+++ b/database/industries/folad/fakhouz/income/quarterly/rial_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fakhouz\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\folad\fakhouz\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0935E984-7697-4378-96BE-B55812FE269C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B60ED6-202E-4AA6-AED3-62B5A29817C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>

--- a/database/industries/folad/fakhouz/income/quarterly/rial_cumulative.xlsx
+++ b/database/industries/folad/fakhouz/income/quarterly/rial_cumulative.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\folad\fakhouz\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B60ED6-202E-4AA6-AED3-62B5A29817C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E6769A-0E88-4FB1-992F-EDDB6158DF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="708" yWindow="708" windowWidth="18204" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>6 ماهه منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>9 ماهه منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>9 ماهه منتهی به 1401/09</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-10-07 (5)</t>
-  </si>
-  <si>
     <t>1400-10-30 (2)</t>
   </si>
   <si>
@@ -88,7 +85,7 @@
     <t>1401-10-29 (2)</t>
   </si>
   <si>
-    <t>1401-10-29 (7)</t>
+    <t>1402-04-18 (10)</t>
   </si>
   <si>
     <t>1401-04-30</t>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>1401-10-29</t>
+  </si>
+  <si>
+    <t>1402-04-18 (3)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -623,11 +623,12 @@
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="9" width="28" customWidth="1"/>
-    <col min="10" max="10" width="29" customWidth="1"/>
-    <col min="11" max="13" width="28" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="8" width="28" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="10" max="12" width="28" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.3">
@@ -828,34 +829,34 @@
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>112120402</v>
+        <v>208798543</v>
       </c>
       <c r="E11" s="13">
-        <v>208798543</v>
+        <v>306467028</v>
       </c>
       <c r="F11" s="13">
-        <v>306467028</v>
+        <v>109067824</v>
       </c>
       <c r="G11" s="13">
-        <v>109067824</v>
+        <v>201883813</v>
       </c>
       <c r="H11" s="13">
-        <v>201883813</v>
+        <v>330590528</v>
       </c>
       <c r="I11" s="13">
-        <v>330590528</v>
+        <v>502166067</v>
       </c>
       <c r="J11" s="13">
-        <v>502166066</v>
+        <v>127641205</v>
       </c>
       <c r="K11" s="13">
-        <v>127641205</v>
+        <v>237855303</v>
       </c>
       <c r="L11" s="13">
-        <v>237855303</v>
+        <v>366866247</v>
       </c>
       <c r="M11" s="13">
-        <v>366866247</v>
+        <v>530636899</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
@@ -864,34 +865,34 @@
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-72438757</v>
+        <v>-126898777</v>
       </c>
       <c r="E12" s="11">
-        <v>-126898777</v>
+        <v>-183873032</v>
       </c>
       <c r="F12" s="11">
-        <v>-183873032</v>
+        <v>-59856233</v>
       </c>
       <c r="G12" s="11">
-        <v>-59856233</v>
+        <v>-118134462</v>
       </c>
       <c r="H12" s="11">
-        <v>-118134462</v>
+        <v>-199007523</v>
       </c>
       <c r="I12" s="11">
-        <v>-199007523</v>
+        <v>-337750116</v>
       </c>
       <c r="J12" s="11">
-        <v>-337750116</v>
+        <v>-88568840</v>
       </c>
       <c r="K12" s="11">
-        <v>-88568840</v>
+        <v>-187510669</v>
       </c>
       <c r="L12" s="11">
-        <v>-187510669</v>
+        <v>-301600601</v>
       </c>
       <c r="M12" s="11">
-        <v>-301600601</v>
+        <v>-440173991</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
@@ -900,34 +901,34 @@
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>39681645</v>
+        <v>81899766</v>
       </c>
       <c r="E13" s="15">
-        <v>81899766</v>
+        <v>122593996</v>
       </c>
       <c r="F13" s="15">
-        <v>122593996</v>
+        <v>49211591</v>
       </c>
       <c r="G13" s="15">
-        <v>49211591</v>
+        <v>83749351</v>
       </c>
       <c r="H13" s="15">
-        <v>83749351</v>
+        <v>131583005</v>
       </c>
       <c r="I13" s="15">
-        <v>131583005</v>
+        <v>164415951</v>
       </c>
       <c r="J13" s="15">
-        <v>164415950</v>
+        <v>39072365</v>
       </c>
       <c r="K13" s="15">
-        <v>39072365</v>
+        <v>50344634</v>
       </c>
       <c r="L13" s="15">
-        <v>50344634</v>
+        <v>65265646</v>
       </c>
       <c r="M13" s="15">
-        <v>65265646</v>
+        <v>90462908</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
@@ -936,34 +937,34 @@
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-4343664</v>
+        <v>-7882142</v>
       </c>
       <c r="E14" s="11">
-        <v>-7882142</v>
+        <v>-12301218</v>
       </c>
       <c r="F14" s="11">
-        <v>-12301218</v>
+        <v>-4810389</v>
       </c>
       <c r="G14" s="11">
-        <v>-4810389</v>
+        <v>-9355810</v>
       </c>
       <c r="H14" s="11">
-        <v>-9355810</v>
+        <v>-14350238</v>
       </c>
       <c r="I14" s="11">
-        <v>-14350238</v>
+        <v>-21516918</v>
       </c>
       <c r="J14" s="11">
-        <v>-21516918</v>
+        <v>-8887672</v>
       </c>
       <c r="K14" s="11">
-        <v>-8887672</v>
+        <v>-20235028</v>
       </c>
       <c r="L14" s="11">
-        <v>-20235028</v>
+        <v>-22888383</v>
       </c>
       <c r="M14" s="11">
-        <v>-22888383</v>
+        <v>-32926273</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
@@ -1008,34 +1009,34 @@
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>2705785</v>
+        <v>2421080</v>
       </c>
       <c r="E16" s="11">
-        <v>2421080</v>
+        <v>3478399</v>
       </c>
       <c r="F16" s="11">
-        <v>3478399</v>
+        <v>-3021487</v>
       </c>
       <c r="G16" s="11">
-        <v>-3021487</v>
+        <v>-3705929</v>
       </c>
       <c r="H16" s="11">
-        <v>-3705929</v>
+        <v>-4380971</v>
       </c>
       <c r="I16" s="11">
-        <v>-4380971</v>
+        <v>-8556832</v>
       </c>
       <c r="J16" s="11">
-        <v>-8556832</v>
+        <v>2578330</v>
       </c>
       <c r="K16" s="11">
-        <v>2578330</v>
+        <v>853388</v>
       </c>
       <c r="L16" s="11">
-        <v>853388</v>
+        <v>-4921397</v>
       </c>
       <c r="M16" s="11">
-        <v>-4921397</v>
+        <v>-2157062</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
@@ -1044,34 +1045,34 @@
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>38043766</v>
+        <v>76438704</v>
       </c>
       <c r="E17" s="15">
-        <v>76438704</v>
+        <v>113771177</v>
       </c>
       <c r="F17" s="15">
-        <v>113771177</v>
+        <v>41379715</v>
       </c>
       <c r="G17" s="15">
-        <v>41379715</v>
+        <v>70687612</v>
       </c>
       <c r="H17" s="15">
-        <v>70687612</v>
+        <v>112851796</v>
       </c>
       <c r="I17" s="15">
-        <v>112851796</v>
+        <v>134342201</v>
       </c>
       <c r="J17" s="15">
-        <v>134342200</v>
+        <v>32763023</v>
       </c>
       <c r="K17" s="15">
-        <v>32763023</v>
+        <v>30962994</v>
       </c>
       <c r="L17" s="15">
-        <v>30962994</v>
+        <v>37455866</v>
       </c>
       <c r="M17" s="15">
-        <v>37455866</v>
+        <v>55379573</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
@@ -1080,34 +1081,34 @@
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-1063844</v>
+        <v>-1689524</v>
       </c>
       <c r="E18" s="11">
-        <v>-1689524</v>
+        <v>-2931529</v>
       </c>
       <c r="F18" s="11">
-        <v>-2931529</v>
+        <v>-889650</v>
       </c>
       <c r="G18" s="11">
-        <v>-889650</v>
+        <v>-1767675</v>
       </c>
       <c r="H18" s="11">
-        <v>-1767675</v>
+        <v>-2676335</v>
       </c>
       <c r="I18" s="11">
-        <v>-2676335</v>
+        <v>-4076957</v>
       </c>
       <c r="J18" s="11">
-        <v>-4076957</v>
+        <v>-1761919</v>
       </c>
       <c r="K18" s="11">
-        <v>-1761919</v>
+        <v>-1275066</v>
       </c>
       <c r="L18" s="11">
-        <v>-1275066</v>
+        <v>-1973728</v>
       </c>
       <c r="M18" s="11">
-        <v>-1973728</v>
+        <v>-4053855</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
@@ -1116,34 +1117,34 @@
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>2352281</v>
+        <v>2586390</v>
       </c>
       <c r="E19" s="13">
-        <v>2586390</v>
+        <v>4806290</v>
       </c>
       <c r="F19" s="13">
-        <v>4806290</v>
+        <v>-885454</v>
       </c>
       <c r="G19" s="13">
-        <v>-885454</v>
+        <v>1376216</v>
       </c>
       <c r="H19" s="13">
-        <v>1376216</v>
+        <v>2862237</v>
       </c>
       <c r="I19" s="13">
-        <v>2862237</v>
+        <v>4215522</v>
       </c>
       <c r="J19" s="13">
-        <v>4215522</v>
+        <v>1855391</v>
       </c>
       <c r="K19" s="13">
-        <v>1855391</v>
+        <v>6401291</v>
       </c>
       <c r="L19" s="13">
-        <v>6401291</v>
+        <v>9857318</v>
       </c>
       <c r="M19" s="13">
-        <v>9857318</v>
+        <v>17058663</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
@@ -1152,34 +1153,34 @@
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>39332203</v>
+        <v>77335570</v>
       </c>
       <c r="E20" s="17">
-        <v>77335570</v>
+        <v>115645938</v>
       </c>
       <c r="F20" s="17">
-        <v>115645938</v>
+        <v>39604611</v>
       </c>
       <c r="G20" s="17">
-        <v>39604611</v>
+        <v>70296153</v>
       </c>
       <c r="H20" s="17">
-        <v>70296153</v>
+        <v>113037698</v>
       </c>
       <c r="I20" s="17">
-        <v>113037698</v>
+        <v>134480766</v>
       </c>
       <c r="J20" s="17">
-        <v>134480765</v>
+        <v>32856495</v>
       </c>
       <c r="K20" s="17">
-        <v>32856495</v>
+        <v>36089219</v>
       </c>
       <c r="L20" s="17">
-        <v>36089219</v>
+        <v>45339456</v>
       </c>
       <c r="M20" s="17">
-        <v>45339456</v>
+        <v>68384381</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
@@ -1188,34 +1189,34 @@
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-3074215</v>
+        <v>-5194605</v>
       </c>
       <c r="E21" s="13">
-        <v>-5194605</v>
+        <v>-3988256</v>
       </c>
       <c r="F21" s="13">
-        <v>-3988256</v>
+        <v>-1961999</v>
       </c>
       <c r="G21" s="13">
-        <v>-1961999</v>
+        <v>-4092110</v>
       </c>
       <c r="H21" s="13">
-        <v>-4092110</v>
+        <v>-7434491</v>
       </c>
       <c r="I21" s="13">
-        <v>-7434491</v>
+        <v>-9068905</v>
       </c>
       <c r="J21" s="13">
-        <v>-9068904</v>
+        <v>-2076382</v>
       </c>
       <c r="K21" s="13">
-        <v>-2076382</v>
+        <v>-3337749</v>
       </c>
       <c r="L21" s="13">
-        <v>-3337749</v>
+        <v>-6353566</v>
       </c>
       <c r="M21" s="13">
-        <v>-6353566</v>
+        <v>-1612596</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
@@ -1224,34 +1225,34 @@
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>36257988</v>
+        <v>72140965</v>
       </c>
       <c r="E22" s="17">
-        <v>72140965</v>
+        <v>111657682</v>
       </c>
       <c r="F22" s="17">
-        <v>111657682</v>
+        <v>37642612</v>
       </c>
       <c r="G22" s="17">
-        <v>37642612</v>
+        <v>66204043</v>
       </c>
       <c r="H22" s="17">
-        <v>66204043</v>
+        <v>105603207</v>
       </c>
       <c r="I22" s="17">
-        <v>105603207</v>
+        <v>125411861</v>
       </c>
       <c r="J22" s="17">
-        <v>125411861</v>
+        <v>30780113</v>
       </c>
       <c r="K22" s="17">
-        <v>30780113</v>
+        <v>32751470</v>
       </c>
       <c r="L22" s="17">
-        <v>32751470</v>
+        <v>38985890</v>
       </c>
       <c r="M22" s="17">
-        <v>38985890</v>
+        <v>66771785</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
@@ -1296,34 +1297,34 @@
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>36257988</v>
+        <v>72140965</v>
       </c>
       <c r="E24" s="17">
-        <v>72140965</v>
+        <v>111657682</v>
       </c>
       <c r="F24" s="17">
-        <v>111657682</v>
+        <v>37642612</v>
       </c>
       <c r="G24" s="17">
-        <v>37642612</v>
+        <v>66204043</v>
       </c>
       <c r="H24" s="17">
-        <v>66204043</v>
+        <v>105603207</v>
       </c>
       <c r="I24" s="17">
-        <v>105603207</v>
+        <v>125411861</v>
       </c>
       <c r="J24" s="17">
-        <v>125411861</v>
+        <v>30780113</v>
       </c>
       <c r="K24" s="17">
-        <v>30780113</v>
+        <v>32751470</v>
       </c>
       <c r="L24" s="17">
-        <v>32751470</v>
+        <v>38985890</v>
       </c>
       <c r="M24" s="17">
-        <v>38985890</v>
+        <v>66771785</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
@@ -1332,34 +1333,34 @@
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>725</v>
+        <v>1443</v>
       </c>
       <c r="E25" s="13">
-        <v>1443</v>
+        <v>930</v>
       </c>
       <c r="F25" s="13">
-        <v>930</v>
+        <v>314</v>
       </c>
       <c r="G25" s="13">
-        <v>314</v>
+        <v>552</v>
       </c>
       <c r="H25" s="13">
-        <v>552</v>
+        <v>880</v>
       </c>
       <c r="I25" s="13">
-        <v>880</v>
+        <v>1045</v>
       </c>
       <c r="J25" s="13">
-        <v>1045</v>
+        <v>257</v>
       </c>
       <c r="K25" s="13">
-        <v>257</v>
+        <v>172</v>
       </c>
       <c r="L25" s="13">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="M25" s="13">
-        <v>205</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
@@ -1371,7 +1372,7 @@
         <v>50000000</v>
       </c>
       <c r="E26" s="11">
-        <v>50000000</v>
+        <v>120000000</v>
       </c>
       <c r="F26" s="11">
         <v>120000000</v>
@@ -1389,7 +1390,7 @@
         <v>120000000</v>
       </c>
       <c r="K26" s="11">
-        <v>120000000</v>
+        <v>190000000</v>
       </c>
       <c r="L26" s="11">
         <v>190000000</v>
@@ -1404,34 +1405,34 @@
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>191</v>
+        <v>380</v>
       </c>
       <c r="E27" s="13">
-        <v>380</v>
+        <v>588</v>
       </c>
       <c r="F27" s="13">
-        <v>588</v>
+        <v>198</v>
       </c>
       <c r="G27" s="13">
-        <v>198</v>
+        <v>348</v>
       </c>
       <c r="H27" s="13">
-        <v>348</v>
+        <v>556</v>
       </c>
       <c r="I27" s="13">
-        <v>556</v>
+        <v>660</v>
       </c>
       <c r="J27" s="13">
-        <v>660</v>
+        <v>162</v>
       </c>
       <c r="K27" s="13">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="L27" s="13">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="M27" s="13">
-        <v>205</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
